--- a/R/analysis/data/Pt_35_M1.xlsx
+++ b/R/analysis/data/Pt_35_M1.xlsx
@@ -574,7 +574,7 @@
         <v>1.79</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M3" t="n">
         <v>0.58</v>
@@ -629,10 +629,10 @@
         <v>3.32</v>
       </c>
       <c r="K4" t="n">
-        <v>5.25</v>
+        <v>0.13</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.09</v>
+        <v>3.71</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="n">
@@ -746,7 +746,7 @@
         <v>1.29</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.26</v>
@@ -801,10 +801,10 @@
         <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>4.6</v>
+        <v>0.35</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.25</v>
+        <v>3.25</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
@@ -868,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0.84</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.8</v>
+        <v>3.8</v>
       </c>
       <c r="M9" t="n">
         <v>0.58</v>
@@ -979,16 +979,16 @@
         <v>6.15</v>
       </c>
       <c r="K10" t="n">
-        <v>4.67</v>
+        <v>0.71</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.5</v>
+        <v>3.3</v>
       </c>
       <c r="M10" t="n">
-        <v>3.77</v>
+        <v>0.94</v>
       </c>
       <c r="N10" t="n">
-        <v>0.66</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0.9</v>
       </c>
       <c r="L12" t="n">
-        <v>-3.86</v>
+        <v>3.86</v>
       </c>
       <c r="M12"/>
       <c r="N12" t="n">
@@ -1151,10 +1151,10 @@
         <v>5.47</v>
       </c>
       <c r="K13" t="n">
-        <v>5.56</v>
+        <v>0.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.07</v>
+        <v>3.93</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1270,7 +1270,7 @@
         <v>0.82</v>
       </c>
       <c r="L15" t="n">
-        <v>-3.33</v>
+        <v>3.33</v>
       </c>
       <c r="M15" t="n">
         <v>0.71</v>
@@ -1325,10 +1325,10 @@
         <v>6.39</v>
       </c>
       <c r="K16" t="n">
-        <v>5.1</v>
+        <v>0.39</v>
       </c>
       <c r="L16" t="n">
-        <v>0.27</v>
+        <v>3.6</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1440,7 +1440,7 @@
         <v>1.55</v>
       </c>
       <c r="L18" t="n">
-        <v>-3.88</v>
+        <v>3.88</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="e">
@@ -1493,10 +1493,10 @@
         <v>#NUM!</v>
       </c>
       <c r="K19" t="n">
-        <v>5.3</v>
+        <v>0.18</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.13</v>
+        <v>3.75</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="e">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>1.41</v>
       </c>
       <c r="L21" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
         <v>0.89</v>
@@ -1667,16 +1667,16 @@
         <v>2.07</v>
       </c>
       <c r="K22" t="n">
-        <v>6.57</v>
+        <v>0.5</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.36</v>
+        <v>4.64</v>
       </c>
       <c r="M22" t="n">
-        <v>4.95</v>
+        <v>0.71</v>
       </c>
       <c r="N22" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>1.34</v>
       </c>
       <c r="L24" t="n">
-        <v>-3.6</v>
+        <v>3.6</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
@@ -1843,16 +1843,16 @@
         <v>1.94</v>
       </c>
       <c r="K25" t="n">
-        <v>5.88</v>
+        <v>0.78</v>
       </c>
       <c r="L25" t="n">
-        <v>0.55</v>
+        <v>4.16</v>
       </c>
       <c r="M25" t="n">
-        <v>4.24</v>
+        <v>1.41</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1962,7 +1962,7 @@
         <v>1.63</v>
       </c>
       <c r="L27" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0.5</v>
@@ -2019,16 +2019,16 @@
         <v>1.24</v>
       </c>
       <c r="K28" t="n">
-        <v>3.94</v>
+        <v>1.11</v>
       </c>
       <c r="L28" t="n">
-        <v>0.78</v>
+        <v>2.79</v>
       </c>
       <c r="M28" t="n">
-        <v>4.77</v>
+        <v>0.88</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.62</v>
+        <v>3.38</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
